--- a/数据可视化/运动员的最大携氧能力、体重和运动后心率数据.xlsx
+++ b/数据可视化/运动员的最大携氧能力、体重和运动后心率数据.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171A4BF1-B17C-460B-8798-9D499D6153B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2A6BA1-42FC-4453-A45C-8733E16E83F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="12346" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,9 +136,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,26 +171,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,26 +206,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,17 +385,17 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.76171875" customWidth="1"/>
+    <col min="2" max="2" width="14.76171875" customWidth="1"/>
+    <col min="3" max="3" width="19.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>55.79</v>
       </c>
@@ -451,7 +417,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>35</v>
       </c>
@@ -462,7 +428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>42.93</v>
       </c>
@@ -473,7 +439,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>28.3</v>
       </c>
@@ -484,7 +450,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>40.56</v>
       </c>
@@ -495,7 +461,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>33</v>
       </c>
@@ -506,7 +472,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>43.48</v>
       </c>
@@ -517,7 +483,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30.38</v>
       </c>
@@ -528,7 +494,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>40.17</v>
       </c>
@@ -539,7 +505,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>36.01</v>
       </c>
@@ -550,7 +516,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>44.22</v>
       </c>
@@ -561,7 +527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>38.76</v>
       </c>
@@ -572,7 +538,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>33.090000000000003</v>
       </c>
@@ -583,18 +549,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>44.81</v>
       </c>
-      <c r="B15">
-        <v>58.97</v>
-      </c>
       <c r="C15">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>31.94</v>
       </c>
@@ -605,7 +568,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>34.479999999999997</v>
       </c>
@@ -616,7 +579,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>47.23</v>
       </c>
@@ -627,7 +590,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>45.06</v>
       </c>
@@ -638,7 +601,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>55.12</v>
       </c>
@@ -649,7 +612,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>45.58</v>
       </c>
@@ -673,7 +636,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -687,7 +650,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
